--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0460/1/template_RP0460.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0460/1/template_RP0460.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0270\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMQ2022\Template\0\RP0460\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41BAD49-FEF3-49DF-8191-54B57B678C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37080B9-BE7C-4C25-8DAA-8D1872A54606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{876A9688-AF9C-408B-A20D-75DB1B12CA5F}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{876A9688-AF9C-408B-A20D-75DB1B12CA5F}"/>
   </bookViews>
   <sheets>
     <sheet name="会計提出表_S" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
-    <t>(〇〇株式会社　保全担当)</t>
-    <rPh sb="3" eb="7">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>総　括</t>
   </si>
   <si>
@@ -303,6 +296,16 @@
   <si>
     <t>新品</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(旭化成メディカル株式会社　保全担当)</t>
+    <rPh sb="1" eb="4">
+      <t>アサヒカセイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1436,6 +1439,32 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1479,32 +1508,6 @@
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1864,7 +1867,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1886,25 +1889,25 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="74" t="s">
         <v>44</v>
-      </c>
-      <c r="U2" s="74" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
@@ -1927,7 +1930,7 @@
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1943,18 +1946,18 @@
         <v>@最終ページ</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="108"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="94"/>
       <c r="P4" s="17"/>
       <c r="T4" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="74" t="s">
         <v>46</v>
-      </c>
-      <c r="U4" s="74" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
@@ -1980,43 +1983,43 @@
       <c r="O5" s="21"/>
       <c r="P5" s="22"/>
       <c r="T5" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="74" t="s">
         <v>49</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>13</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
@@ -2026,120 +2029,120 @@
     <row r="7" spans="1:22" ht="12" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="O7" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:22" ht="12" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="43" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:22" ht="12" customHeight="1">
       <c r="A9" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="C9" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="D9" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="E9" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="G9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="79" t="s">
+      <c r="J9" s="79" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="48" t="str">
         <f>IF($S9 ="","","A")</f>
         <v>A</v>
       </c>
       <c r="L9" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="N9" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="113"/>
+      <c r="O9" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="99"/>
       <c r="Q9" s="49"/>
       <c r="S9" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12" customHeight="1">
@@ -3205,8 +3208,8 @@
       <c r="D58" s="78"/>
       <c r="E58" s="52"/>
       <c r="F58" s="53"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="105"/>
       <c r="I58" s="78"/>
       <c r="J58" s="78"/>
       <c r="K58" s="52" t="str">
@@ -3216,8 +3219,8 @@
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="100"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="107"/>
       <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="13.5" customHeight="1">
@@ -3227,13 +3230,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="101">
+        <v>28</v>
+      </c>
+      <c r="G59" s="108">
         <f>SUM($G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="102"/>
+      <c r="H59" s="109"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3250,12 +3253,12 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="104"/>
+        <v>29</v>
+      </c>
+      <c r="G60" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="111"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3290,13 +3293,13 @@
       <c r="D62" s="54"/>
       <c r="E62" s="55"/>
       <c r="F62" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="105">
+        <v>30</v>
+      </c>
+      <c r="G62" s="112">
         <f>$G$59-SUM($G$63:$H$65)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="106"/>
+      <c r="H62" s="113"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3311,17 +3314,17 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="58"/>
       <c r="F63" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="93">
+        <v>32</v>
+      </c>
+      <c r="G63" s="100">
         <f>SUMIF($L$9:$L$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="94"/>
+      <c r="H63" s="101"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3335,17 +3338,17 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="58"/>
       <c r="F64" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="93">
+        <v>34</v>
+      </c>
+      <c r="G64" s="100">
         <f>SUMIF($M$9:$M$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="94"/>
+      <c r="H64" s="101"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3362,13 +3365,13 @@
       <c r="D65" s="60"/>
       <c r="E65" s="61"/>
       <c r="F65" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="95">
+        <v>35</v>
+      </c>
+      <c r="G65" s="102">
         <f>SUMIF($N$9:$N$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="96"/>
+      <c r="H65" s="103"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="67" spans="1:16" ht="12" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3418,12 +3421,12 @@
     </row>
     <row r="68" spans="1:16" ht="12" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="64"/>
       <c r="D68" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
@@ -3434,7 +3437,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="67"/>
       <c r="M68" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N68" s="65"/>
       <c r="O68" s="65"/>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="69" spans="1:16" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="68"/>
       <c r="C69" s="64"/>
@@ -3456,7 +3459,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="67"/>
       <c r="M69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="70" spans="1:16" ht="12.95" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="76" spans="1:16" ht="12" customHeight="1">
       <c r="P76" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="12" customHeight="1">
@@ -3567,43 +3570,54 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="G27:H27"/>
@@ -3628,54 +3642,43 @@
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="O22:P22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLinesSet="0"/>
@@ -3761,10 +3764,10 @@
       <c r="P2" s="84"/>
       <c r="Q2" s="88"/>
       <c r="T2" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="74" t="s">
         <v>44</v>
-      </c>
-      <c r="U2" s="74" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
@@ -3788,7 +3791,7 @@
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3813,10 +3816,10 @@
       <c r="P4" s="84"/>
       <c r="Q4" s="88"/>
       <c r="T4" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="74" t="s">
         <v>46</v>
-      </c>
-      <c r="U4" s="74" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
@@ -3843,43 +3846,43 @@
       <c r="P5" s="83"/>
       <c r="Q5" s="88"/>
       <c r="T5" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="74" t="s">
         <v>49</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>13</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
@@ -3889,120 +3892,120 @@
     <row r="7" spans="1:22" ht="12" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="O7" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:22" ht="12" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="43" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:22" ht="12" customHeight="1">
       <c r="A9" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="C9" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="D9" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="E9" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="G9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="79" t="s">
+      <c r="J9" s="79" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="48" t="str">
         <f>IF($S9 ="","","A")</f>
         <v>A</v>
       </c>
       <c r="L9" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="N9" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="113"/>
+      <c r="O9" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="99"/>
       <c r="Q9" s="49"/>
       <c r="S9" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12" customHeight="1">
@@ -5068,8 +5071,8 @@
       <c r="D58" s="78"/>
       <c r="E58" s="52"/>
       <c r="F58" s="53"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="105"/>
       <c r="I58" s="78"/>
       <c r="J58" s="78"/>
       <c r="K58" s="52" t="str">
@@ -5079,8 +5082,8 @@
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="100"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="107"/>
       <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="13.5" customHeight="1">
@@ -5090,13 +5093,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="101">
+        <v>28</v>
+      </c>
+      <c r="G59" s="108">
         <f>SUM($G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="102"/>
+      <c r="H59" s="109"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -5113,12 +5116,12 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="104"/>
+        <v>29</v>
+      </c>
+      <c r="G60" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="111"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -5153,13 +5156,13 @@
       <c r="D62" s="54"/>
       <c r="E62" s="55"/>
       <c r="F62" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="105">
+        <v>30</v>
+      </c>
+      <c r="G62" s="112">
         <f>$G$59-SUM($G$63:$H$65)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="106"/>
+      <c r="H62" s="113"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -5174,17 +5177,17 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="58"/>
       <c r="F63" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="93">
+        <v>32</v>
+      </c>
+      <c r="G63" s="100">
         <f>SUMIF($L$9:$L$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="94"/>
+      <c r="H63" s="101"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -5198,17 +5201,17 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="58"/>
       <c r="F64" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="93">
+        <v>34</v>
+      </c>
+      <c r="G64" s="100">
         <f>SUMIF($M$9:$M$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="94"/>
+      <c r="H64" s="101"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -5225,13 +5228,13 @@
       <c r="D65" s="60"/>
       <c r="E65" s="61"/>
       <c r="F65" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="95">
+        <v>35</v>
+      </c>
+      <c r="G65" s="102">
         <f>SUMIF($N$9:$N$58,"✔",$G$9:$H$58)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="96"/>
+      <c r="H65" s="103"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -5261,7 +5264,7 @@
     </row>
     <row r="67" spans="1:16" ht="12" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5281,12 +5284,12 @@
     </row>
     <row r="68" spans="1:16" ht="12" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="64"/>
       <c r="D68" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
@@ -5297,7 +5300,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="67"/>
       <c r="M68" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N68" s="65"/>
       <c r="O68" s="65"/>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="69" spans="1:16" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="68"/>
       <c r="C69" s="64"/>
@@ -5319,7 +5322,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="67"/>
       <c r="M69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -5327,7 +5330,7 @@
     </row>
     <row r="70" spans="1:16" ht="12.95" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5407,7 +5410,7 @@
     </row>
     <row r="76" spans="1:16" ht="12" customHeight="1">
       <c r="P76" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="12" customHeight="1">
@@ -5430,16 +5433,90 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="G18:H18"/>
@@ -5452,90 +5529,16 @@
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLinesSet="0"/>
@@ -5546,4 +5549,262 @@
     <brk id="16" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EEDB6820E805EB47B50D2A076EFADE03" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="cfa7f44fd06e07526c93946324dfd0f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c432ce6-fed8-4a0a-8c69-6ac6066dd51f" xmlns:ns3="7cec640c-21e0-4346-b606-8c190c96988a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cef39d8685573eda74f4126821781bf7" ns2:_="" ns3:_="">
+    <xsd:import namespace="8c432ce6-fed8-4a0a-8c69-6ac6066dd51f"/>
+    <xsd:import namespace="7cec640c-21e0-4346-b606-8c190c96988a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c432ce6-fed8-4a0a-8c69-6ac6066dd51f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="52106043-f6b2-4b05-87eb-45a4e68abec2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7cec640c-21e0-4346-b606-8c190c96988a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e2ba49a3-3e75-405f-ab70-b9720a2f1096}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7cec640c-21e0-4346-b606-8c190c96988a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1904D8-8602-418D-A595-90ABEA7121B1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC9FFE01-65CE-4176-9382-1B95BB22423D}"/>
 </file>